--- a/drones - data.xlsx
+++ b/drones - data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cloud Computer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD07F138-018F-41EA-8294-B644D16DB236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1E4006-9F5C-49FC-BB4A-F08DDDC654C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5604" yWindow="3276" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Response" sheetId="1" r:id="rId1"/>
     <sheet name="Throughput-Fog" sheetId="3" r:id="rId2"/>
     <sheet name="throughput" sheetId="2" r:id="rId3"/>
-    <sheet name="JK" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,64 +85,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -165,24 +112,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3996,100 +3931,100 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="6">
+      <c r="B3" s="2">
         <v>500</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="2">
         <v>40</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="2">
         <v>30</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="2">
         <v>180</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="6">
+      <c r="B4" s="2">
         <v>1000</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="2">
         <v>70</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="2">
         <v>65</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="2">
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="6">
+      <c r="B5" s="2">
         <v>1500</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="2">
         <v>80</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
         <v>75</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <v>380</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="6">
+      <c r="B6" s="2">
         <v>2000</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="2">
         <v>120</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
         <v>100</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="2">
         <v>595</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="6">
+      <c r="B7" s="2">
         <v>2500</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="2">
         <v>380</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="2">
         <v>330</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="2">
         <v>765</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="6">
+      <c r="B8" s="2">
         <v>3000</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="2">
         <v>600</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="2">
         <v>510</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="2">
         <v>1030</v>
       </c>
     </row>
@@ -4113,100 +4048,100 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="6">
+      <c r="B3" s="2">
         <v>500</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="2">
         <v>20.25</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="2">
         <v>26.66</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="2">
         <v>12.77</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="6">
+      <c r="B4" s="2">
         <v>1000</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="2">
         <v>18.88</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="2">
         <v>22.32</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="2">
         <v>10.32</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="6">
+      <c r="B5" s="2">
         <v>1500</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="2">
         <v>16.350000000000001</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
         <v>20</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <v>8.32</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="6">
+      <c r="B6" s="2">
         <v>2000</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="2">
         <v>15.12</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
         <v>18</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="2">
         <v>6.2</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="6">
+      <c r="B7" s="2">
         <v>2500</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="2">
         <v>13.2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="2">
         <v>16.5</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="2">
         <v>3.2</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="6">
+      <c r="B8" s="2">
         <v>3000</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="2">
         <v>10.32</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="2">
         <v>13.8</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="2">
         <v>2.9</v>
       </c>
     </row>
@@ -4230,370 +4165,108 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="6">
+      <c r="B3" s="2">
         <v>100</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="2">
         <v>52.2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="2">
         <v>49.3</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="2">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="6">
+      <c r="B4" s="2">
         <v>200</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="2">
         <v>107.6</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="2">
         <v>93.2</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="2">
         <v>89.2</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="6">
+      <c r="B5" s="2">
         <v>300</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="2">
         <v>110.9</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
         <v>107.1</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <v>100.2</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="6">
+      <c r="B6" s="2">
         <v>400</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="2">
         <v>115.3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
         <v>109.3</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="2">
         <v>104.3</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="6">
+      <c r="B7" s="2">
         <v>500</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="2">
         <v>118.4</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="2">
         <v>111.1</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="2">
         <v>102.3</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="6">
+      <c r="B8" s="2">
         <v>600</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="2">
         <v>114.2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="2">
         <v>109.5</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="2">
         <v>100.1</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E11" s="6"/>
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599B31E8-56CA-4961-B125-FD0D1BDF99C8}">
-  <dimension ref="C1:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="1">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2">
-        <v>920</v>
-      </c>
-      <c r="E2">
-        <f>C2*D2</f>
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="3" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="3">
-        <v>105</v>
-      </c>
-      <c r="D3" s="4">
-        <v>920</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E21" si="0">C3*D3</f>
-        <v>96600</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="3">
-        <v>40</v>
-      </c>
-      <c r="D4" s="4">
-        <v>950</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="3">
-        <v>284</v>
-      </c>
-      <c r="D5" s="4">
-        <v>510</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>144840</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="3">
-        <v>348</v>
-      </c>
-      <c r="D6" s="4">
-        <v>510</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>177480</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="3">
-        <v>368</v>
-      </c>
-      <c r="D7" s="4">
-        <v>550</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>202400</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="3">
-        <v>242</v>
-      </c>
-      <c r="D8" s="4">
-        <v>550</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>133100</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="3">
-        <v>66</v>
-      </c>
-      <c r="D9" s="4">
-        <v>590</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>38940</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="3">
-        <v>103</v>
-      </c>
-      <c r="D10" s="4">
-        <v>780</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>80340</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="3">
-        <v>165</v>
-      </c>
-      <c r="D11" s="4">
-        <v>800</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>132000</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="3">
-        <v>252</v>
-      </c>
-      <c r="D12" s="4">
-        <v>800</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>201600</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="3">
-        <v>135</v>
-      </c>
-      <c r="D13" s="4">
-        <v>825</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>111375</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="3">
-        <v>59</v>
-      </c>
-      <c r="D14" s="4">
-        <v>640</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>37760</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="3">
-        <v>89</v>
-      </c>
-      <c r="D15" s="4">
-        <v>660</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>58740</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="3">
-        <v>109</v>
-      </c>
-      <c r="D16" s="4">
-        <v>660</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>71940</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="3">
-        <v>64</v>
-      </c>
-      <c r="D17" s="4">
-        <v>685</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>43840</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="3">
-        <v>1748</v>
-      </c>
-      <c r="D18" s="4">
-        <v>41</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>71668</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="3">
-        <v>60</v>
-      </c>
-      <c r="D19" s="4">
-        <v>60</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="1">
-        <v>596</v>
-      </c>
-      <c r="D20" s="2">
-        <v>78</v>
-      </c>
-      <c r="E20">
-        <f>C20*D20</f>
-        <v>46488</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="3">
-        <v>596</v>
-      </c>
-      <c r="D21" s="4">
-        <v>32</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>19072</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E22">
-        <f>SUM(E2:E21)</f>
-        <v>1732783</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>